--- a/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-08.xlsx
+++ b/story/Main Story and Others 主线剧情等/tutorial 教学关卡/level/main_00-08.xlsx
@@ -52,15 +52,15 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ace")] The situation isn’t looking good, but it’s still far from hopeless.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Mhm. I know what I’m supposed to do.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] A lot of enemies are coming. I’d recommended deploying Casters with &lt;@tu.kw&gt;Area-of-Effect (AOE) Damage&lt;/&gt; capabilities.
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_ace")] The situation isn't looking good, but it's still far from hopeless.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_amiya")] Mhm. I know what I'm supposed to do.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[PopupDialog(dialogHead="$avatar_doberm")] A lot of enemies are coming. I'd recommended deploying Casters with &lt;@tu.kw&gt;Area-of-Effect (AOE) Damage&lt;/&gt; capabilities.
 </t>
   </si>
   <si>
